--- a/ML/WWScan/Risk_categories_overlap_time_226_counties.xlsx
+++ b/ML/WWScan/Risk_categories_overlap_time_226_counties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/ML/WWScan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/ML/WWScan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A5E403-B91B-BC42-B44F-D6FF3A13E2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E446732B-F225-E547-AC7E-B58D2887F879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -438,7 +438,7 @@
     <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ML/WWScan/Risk_categories_overlap_time_226_counties.xlsx
+++ b/ML/WWScan/Risk_categories_overlap_time_226_counties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/ML/WWScan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E446732B-F225-E547-AC7E-B58D2887F879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EB48B0-35A6-C240-A7E6-B3EBEB73CBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208:XFD208"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
